--- a/TP2/Punto3.xlsx
+++ b/TP2/Punto3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ezequiel Baamonde\Desktop\UNLP\2do AÑO\ISO\Práctica\TP2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4ED8CA-08C3-404C-AB4A-D5AF26781EC2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9472AC6-4541-4F84-997F-F91095225FB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{BA9A3185-9650-495F-9811-2705BA1E0258}"/>
   </bookViews>
@@ -439,29 +439,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -482,6 +464,24 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -798,8 +798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A41974B-9338-42C1-8136-D8244315AA9A}">
   <dimension ref="A1:BE29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="O7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -808,12 +808,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -966,16 +966,16 @@
       <c r="AX2" s="2">
         <v>46</v>
       </c>
-      <c r="AY2" s="16" t="s">
+      <c r="AY2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="AZ2" s="16" t="s">
+      <c r="AZ2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="BA2" s="17" t="s">
+      <c r="BA2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="BB2" s="17" t="s">
+      <c r="BB2" s="11" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1050,17 +1050,17 @@
       <c r="AV3" s="2"/>
       <c r="AW3" s="2"/>
       <c r="AX3" s="2"/>
-      <c r="AY3" s="18">
+      <c r="AY3" s="12">
         <v>7</v>
       </c>
-      <c r="AZ3" s="18">
+      <c r="AZ3" s="12">
         <v>0</v>
       </c>
-      <c r="BA3" s="20">
+      <c r="BA3" s="14">
         <f>AVERAGE(AY3:AY7)</f>
         <v>29.6</v>
       </c>
-      <c r="BB3" s="20">
+      <c r="BB3" s="14">
         <f>AVERAGE(AZ3:AZ7)</f>
         <v>20.2</v>
       </c>
@@ -1154,14 +1154,14 @@
       <c r="AV4" s="2"/>
       <c r="AW4" s="2"/>
       <c r="AX4" s="2"/>
-      <c r="AY4" s="18">
+      <c r="AY4" s="12">
         <v>22</v>
       </c>
-      <c r="AZ4" s="18">
+      <c r="AZ4" s="12">
         <v>7</v>
       </c>
-      <c r="BA4" s="19"/>
-      <c r="BB4" s="19"/>
+      <c r="BA4" s="13"/>
+      <c r="BB4" s="13"/>
     </row>
     <row r="5" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -1246,14 +1246,14 @@
       <c r="AV5" s="2"/>
       <c r="AW5" s="2"/>
       <c r="AX5" s="2"/>
-      <c r="AY5" s="18">
+      <c r="AY5" s="12">
         <v>34</v>
       </c>
-      <c r="AZ5" s="18">
+      <c r="AZ5" s="12">
         <v>22</v>
       </c>
-      <c r="BA5" s="19"/>
-      <c r="BB5" s="19"/>
+      <c r="BA5" s="13"/>
+      <c r="BB5" s="13"/>
     </row>
     <row r="6" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -1322,14 +1322,14 @@
       <c r="AV6" s="2"/>
       <c r="AW6" s="2"/>
       <c r="AX6" s="2"/>
-      <c r="AY6" s="18">
+      <c r="AY6" s="12">
         <v>38</v>
       </c>
-      <c r="AZ6" s="18">
+      <c r="AZ6" s="12">
         <v>34</v>
       </c>
-      <c r="BA6" s="19"/>
-      <c r="BB6" s="19"/>
+      <c r="BA6" s="13"/>
+      <c r="BB6" s="13"/>
     </row>
     <row r="7" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -1408,17 +1408,17 @@
       <c r="AX7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AY7" s="18">
+      <c r="AY7" s="12">
         <v>47</v>
       </c>
-      <c r="AZ7" s="18">
+      <c r="AZ7" s="12">
         <v>38</v>
       </c>
-      <c r="BA7" s="19"/>
-      <c r="BB7" s="19"/>
+      <c r="BA7" s="13"/>
+      <c r="BB7" s="13"/>
     </row>
     <row r="8" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="2"/>
@@ -1478,48 +1478,48 @@
       <c r="AZ8" s="1"/>
     </row>
     <row r="9" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="7" t="s">
+      <c r="B9" s="22"/>
+      <c r="C9" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="7"/>
+      <c r="D9" s="19"/>
     </row>
     <row r="10" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
     </row>
     <row r="11" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
     </row>
     <row r="12" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
     </row>
     <row r="13" spans="1:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -1672,16 +1672,16 @@
       <c r="AX13" s="2">
         <v>46</v>
       </c>
-      <c r="AY13" s="16" t="s">
+      <c r="AY13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="AZ13" s="16" t="s">
+      <c r="AZ13" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="BA13" s="17" t="s">
+      <c r="BA13" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="BB13" s="17" t="s">
+      <c r="BB13" s="11" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1758,17 +1758,17 @@
       <c r="AV14" s="5"/>
       <c r="AW14" s="5"/>
       <c r="AX14" s="5"/>
-      <c r="AY14" s="18">
+      <c r="AY14" s="12">
         <v>11</v>
       </c>
-      <c r="AZ14" s="18">
-        <v>4</v>
-      </c>
-      <c r="BA14" s="20">
+      <c r="AZ14" s="12">
+        <v>4</v>
+      </c>
+      <c r="BA14" s="14">
         <f>AVERAGE(AY14:AY18)</f>
         <v>22.8</v>
       </c>
-      <c r="BB14" s="20">
+      <c r="BB14" s="14">
         <f>AVERAGE(AZ14:AZ18)</f>
         <v>13.4</v>
       </c>
@@ -1862,14 +1862,14 @@
       <c r="AX15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="AY15" s="18">
+      <c r="AY15" s="12">
         <v>47</v>
       </c>
-      <c r="AZ15" s="18">
+      <c r="AZ15" s="12">
         <v>32</v>
       </c>
-      <c r="BA15" s="19"/>
-      <c r="BB15" s="19"/>
+      <c r="BA15" s="13"/>
+      <c r="BB15" s="13"/>
     </row>
     <row r="16" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -1954,14 +1954,14 @@
       <c r="AV16" s="5"/>
       <c r="AW16" s="5"/>
       <c r="AX16" s="5"/>
-      <c r="AY16" s="18">
+      <c r="AY16" s="12">
         <v>32</v>
       </c>
-      <c r="AZ16" s="18">
+      <c r="AZ16" s="12">
         <v>20</v>
       </c>
-      <c r="BA16" s="19"/>
-      <c r="BB16" s="19"/>
+      <c r="BA16" s="13"/>
+      <c r="BB16" s="13"/>
     </row>
     <row r="17" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
@@ -2028,14 +2028,14 @@
       <c r="AV17" s="5"/>
       <c r="AW17" s="5"/>
       <c r="AX17" s="5"/>
-      <c r="AY17" s="18">
-        <v>4</v>
-      </c>
-      <c r="AZ17" s="18">
+      <c r="AY17" s="12">
+        <v>4</v>
+      </c>
+      <c r="AZ17" s="12">
         <v>0</v>
       </c>
-      <c r="BA17" s="19"/>
-      <c r="BB17" s="19"/>
+      <c r="BA17" s="13"/>
+      <c r="BB17" s="13"/>
     </row>
     <row r="18" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
@@ -2114,17 +2114,17 @@
       <c r="AV18" s="5"/>
       <c r="AW18" s="5"/>
       <c r="AX18" s="5"/>
-      <c r="AY18" s="18">
+      <c r="AY18" s="12">
         <v>20</v>
       </c>
-      <c r="AZ18" s="18">
+      <c r="AZ18" s="12">
         <v>11</v>
       </c>
-      <c r="BA18" s="19"/>
-      <c r="BB18" s="19"/>
+      <c r="BA18" s="13"/>
+      <c r="BB18" s="13"/>
     </row>
     <row r="19" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="2"/>
@@ -2182,19 +2182,19 @@
       <c r="AX19" s="2"/>
     </row>
     <row r="20" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
     </row>
     <row r="22" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -2347,16 +2347,16 @@
       <c r="AX22" s="2">
         <v>46</v>
       </c>
-      <c r="AY22" s="16" t="s">
+      <c r="AY22" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="AZ22" s="16" t="s">
+      <c r="AZ22" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="BA22" s="17" t="s">
+      <c r="BA22" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="BB22" s="17" t="s">
+      <c r="BB22" s="11" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2431,17 +2431,17 @@
       <c r="AV23" s="5"/>
       <c r="AW23" s="5"/>
       <c r="AX23" s="5"/>
-      <c r="AY23" s="18">
+      <c r="AY23" s="12">
         <v>23</v>
       </c>
-      <c r="AZ23" s="18">
+      <c r="AZ23" s="12">
         <v>16</v>
       </c>
-      <c r="BA23" s="20">
+      <c r="BA23" s="14">
         <f>AVERAGE(AY23:AY27)</f>
         <v>34.6</v>
       </c>
-      <c r="BB23" s="20">
+      <c r="BB23" s="14">
         <f>AVERAGE(AZ23:AZ27)</f>
         <v>25.2</v>
       </c>
@@ -2525,7 +2525,7 @@
       <c r="AR24" s="6"/>
       <c r="AS24" s="6"/>
       <c r="AT24" s="6"/>
-      <c r="AU24" s="22"/>
+      <c r="AU24" s="16"/>
       <c r="AV24" s="4">
         <v>13</v>
       </c>
@@ -2535,14 +2535,14 @@
       <c r="AX24" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="AY24" s="18">
+      <c r="AY24" s="12">
         <v>47</v>
       </c>
-      <c r="AZ24" s="18">
+      <c r="AZ24" s="12">
         <v>32</v>
       </c>
-      <c r="BA24" s="19"/>
-      <c r="BB24" s="19"/>
+      <c r="BA24" s="13"/>
+      <c r="BB24" s="13"/>
     </row>
     <row r="25" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
@@ -2627,17 +2627,17 @@
       <c r="AV25" s="5"/>
       <c r="AW25" s="5"/>
       <c r="AX25" s="5"/>
-      <c r="AY25" s="18">
+      <c r="AY25" s="12">
         <v>43</v>
       </c>
-      <c r="AZ25" s="18">
+      <c r="AZ25" s="12">
         <v>31</v>
       </c>
-      <c r="BA25" s="23"/>
-      <c r="BB25" s="19"/>
-      <c r="BC25" s="19"/>
-      <c r="BD25" s="19"/>
-      <c r="BE25" s="19"/>
+      <c r="BA25" s="17"/>
+      <c r="BB25" s="13"/>
+      <c r="BC25" s="13"/>
+      <c r="BD25" s="13"/>
+      <c r="BE25" s="13"/>
     </row>
     <row r="26" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
@@ -2706,14 +2706,14 @@
       <c r="AV26" s="5"/>
       <c r="AW26" s="5"/>
       <c r="AX26" s="5"/>
-      <c r="AY26" s="18">
+      <c r="AY26" s="12">
         <v>16</v>
       </c>
-      <c r="AZ26" s="18">
+      <c r="AZ26" s="12">
         <v>12</v>
       </c>
-      <c r="BA26" s="19"/>
-      <c r="BB26" s="19"/>
+      <c r="BA26" s="13"/>
+      <c r="BB26" s="13"/>
     </row>
     <row r="27" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -2792,20 +2792,20 @@
       <c r="AV27" s="5"/>
       <c r="AW27" s="5"/>
       <c r="AX27" s="5"/>
-      <c r="AY27" s="18">
+      <c r="AY27" s="12">
         <v>44</v>
       </c>
-      <c r="AZ27" s="18">
+      <c r="AZ27" s="12">
         <v>35</v>
       </c>
-      <c r="BA27" s="19"/>
-      <c r="BB27" s="19"/>
+      <c r="BA27" s="13"/>
+      <c r="BB27" s="13"/>
     </row>
     <row r="28" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="15" t="s">
         <v>24</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -2948,19 +2948,19 @@
       <c r="AX28" s="2"/>
     </row>
     <row r="29" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="6">
